--- a/android-testing/FUT.xlsx
+++ b/android-testing/FUT.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DummentMobileDev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AndroidProject\udacity\android-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66F4D19-0972-4749-991F-9F1C029BCD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E42F78-413A-468A-80A7-919148704FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{DB693A12-F273-4690-AC06-817EAFCAFBA8}"/>
   </bookViews>
   <sheets>
     <sheet name="templete" sheetId="1" r:id="rId1"/>
-    <sheet name="charlet" sheetId="2" r:id="rId2"/>
+    <sheet name="andorid_Testing" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Testing contents</t>
   </si>
@@ -55,7 +55,72 @@
     <t>connect internet</t>
   </si>
   <si>
-    <t>confirm url:</t>
+    <t>screen name</t>
+  </si>
+  <si>
+    <t>TasksFrament screen</t>
+  </si>
+  <si>
+    <t>confirm action press add_task_fab button</t>
+  </si>
+  <si>
+    <t>move to AddEditTaskFragment screen</t>
+  </si>
+  <si>
+    <t>AddEditTaskFragment screen</t>
+  </si>
+  <si>
+    <t>show snapbar "Tasks cannot be empty"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirm title Is null </t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirm description  Is null </t>
+  </si>
+  <si>
+    <t>confirm title Is empty</t>
+  </si>
+  <si>
+    <t>confirm description  Is empty</t>
+  </si>
+  <si>
+    <t>confrim aciton when press button save_task</t>
+  </si>
+  <si>
+    <t>create new task and move to taskFramgent screen</t>
+  </si>
+  <si>
+    <t>TasksActivity screen</t>
+  </si>
+  <si>
+    <t>confirm aciton when press menubar item left</t>
+  </si>
+  <si>
+    <t>move to NavigationView screen</t>
+  </si>
+  <si>
+    <t>navigationView screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirm aciton when press  button tasklist </t>
+  </si>
+  <si>
+    <t>confirm action when press buton status</t>
+  </si>
+  <si>
+    <t>move to TaskFramgment screen  and
+show task complete number % and task not complete number %</t>
+  </si>
+  <si>
+    <t>move to load again TaskFramgment screen  
+and show all list task</t>
+  </si>
+  <si>
+    <t>confirm change title when move to new Task</t>
+  </si>
+  <si>
+    <t>change title = "new Task"</t>
   </si>
 </sst>
 </file>
@@ -93,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -116,11 +181,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -128,6 +230,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,7 +563,7 @@
   <dimension ref="D3:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,224 +784,347 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F979C1-FD8C-4DF1-8742-40B556EFE44A}">
-  <dimension ref="D3:I25"/>
+  <dimension ref="D3:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="51.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="49.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
-        <v>9</v>
+    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D5" s="8"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="4:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="D7" s="8"/>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="8"/>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="8"/>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D6:D7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>